--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taradanov\AppData\LocalLow\VoxelTycoon\VoxelTycoon\Saves\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kolka\AppData\LocalLow\VoxelTycoon\VoxelTycoon\Saves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C272D7C-BA19-4629-A972-AFF8995D2264}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="765" windowWidth="21600" windowHeight="11385" xr2:uid="{641AEB8E-7B22-414E-8252-CCE124C6D85B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Радиодеталь" sheetId="1" r:id="rId1"/>
     <sheet name="СтальнаяБалка" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,11 +406,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721569A3-1886-4CD8-A362-9E8A6D3B8067}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,11 +427,11 @@
         <v>0.25</v>
       </c>
       <c r="C1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1">
         <f t="shared" ref="D1:D3" si="0">B1*C1</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -444,11 +443,11 @@
         <v>0.4</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>1.2000000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -476,11 +475,11 @@
         <v>0.2</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <f>B4*C4</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -494,7 +493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F57BA32-4A1A-4DA4-9D6B-51AC640E49F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kolka\AppData\LocalLow\VoxelTycoon\VoxelTycoon\Saves\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taradanov\AppData\LocalLow\VoxelTycoon\VoxelTycoon\Saves\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0571BE-165D-437B-AB4C-1A1AF1284CC4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7620"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{641AEB8E-7B22-414E-8252-CCE124C6D85B}"/>
   </bookViews>
   <sheets>
     <sheet name="Радиодеталь" sheetId="1" r:id="rId1"/>
     <sheet name="СтальнаяБалка" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,13 +54,13 @@
     <t>железный слиток</t>
   </si>
   <si>
-    <t>Стек 4 штуки</t>
+    <t>Стек 5 штуки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,6 +109,60 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42627FE2-650B-4F6B-B37B-036F3D66DC22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57151" y="1181099"/>
+          <a:ext cx="14878050" cy="5410201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,11 +461,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721569A3-1886-4CD8-A362-9E8A6D3B8067}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,11 +514,11 @@
         <v>1.2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -489,15 +544,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F57BA32-4A1A-4DA4-9D6B-51AC640E49F6}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taradanov\AppData\LocalLow\VoxelTycoon\VoxelTycoon\Saves\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kolka\AppData\LocalLow\VoxelTycoon\VoxelTycoon\Saves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0571BE-165D-437B-AB4C-1A1AF1284CC4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{641AEB8E-7B22-414E-8252-CCE124C6D85B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Радиодеталь" sheetId="1" r:id="rId1"/>
     <sheet name="СтальнаяБалка" sheetId="2" r:id="rId2"/>
+    <sheet name="Продвинутая мебель" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Медный слиток</t>
   </si>
@@ -55,12 +55,24 @@
   </si>
   <si>
     <t>Стек 5 штуки</t>
+  </si>
+  <si>
+    <t>Продвинутая мебель</t>
+  </si>
+  <si>
+    <t>стекло</t>
+  </si>
+  <si>
+    <t>мебель</t>
+  </si>
+  <si>
+    <t>доска</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -461,7 +473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721569A3-1886-4CD8-A362-9E8A6D3B8067}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -549,11 +561,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F57BA32-4A1A-4DA4-9D6B-51AC640E49F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,4 +628,85 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="C1" s="1">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1">
+        <f t="shared" ref="D1:D4" si="0">B1*C1</f>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1666666666666665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kolka\AppData\LocalLow\VoxelTycoon\VoxelTycoon\Saves\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taradanov\AppData\LocalLow\VoxelTycoon\VoxelTycoon\Saves\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6DE74A-EE4B-40D5-B64E-5C295050C3E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Радиодеталь" sheetId="1" r:id="rId1"/>
     <sheet name="СтальнаяБалка" sheetId="2" r:id="rId2"/>
     <sheet name="Продвинутая мебель" sheetId="3" r:id="rId3"/>
+    <sheet name="БетоннаяБалка" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Медный слиток</t>
   </si>
@@ -67,12 +69,21 @@
   </si>
   <si>
     <t>доска</t>
+  </si>
+  <si>
+    <t>Гравий</t>
+  </si>
+  <si>
+    <t>Песок</t>
+  </si>
+  <si>
+    <t>Балка</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -473,7 +484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -561,7 +572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -631,11 +642,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,4 +720,60 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FB72F8-93B3-4DD8-B3F7-B8B43865F675}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1">
+        <f t="shared" ref="D1:D3" si="0">B1*C1</f>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>